--- a/data/trans_dic/P37A$vacunaempresa-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P37A$vacunaempresa-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.001500528072311974</v>
+        <v>0.001521400379593623</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.002216651428076209</v>
+        <v>0.002012982382852224</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.004584339402689039</v>
+        <v>0.004896321557638515</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.003486699145343759</v>
+        <v>0.003481660018636801</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0007477053725074686</v>
+        <v>0.000754504304697411</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.00556793990834533</v>
+        <v>0.005922478674633774</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0006390260146055105</v>
+        <v>0.0006547576368197062</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.003717777077103355</v>
+        <v>0.003783054684506592</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.000859648649643755</v>
+        <v>0.0008380253814974465</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.006987457949586563</v>
+        <v>0.006756745953033093</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01338916428384472</v>
+        <v>0.01312829033077816</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01531728220910438</v>
+        <v>0.01388343877490426</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.008774635923842769</v>
+        <v>0.008617478933252772</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.0333964288788109</v>
+        <v>0.03300993514355745</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.005399517251090748</v>
+        <v>0.007236281671607644</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.01558942122537028</v>
+        <v>0.01548288970058886</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.006567911256889765</v>
+        <v>0.007160946266246932</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.02004649078698487</v>
+        <v>0.02043322631958059</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.006306922442323573</v>
+        <v>0.006506894003304337</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.01148967633637885</v>
+        <v>0.01246097837384067</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.006191894099907295</v>
+        <v>0.005763187008529455</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.02110470335287847</v>
+        <v>0.0216457221813299</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.004198822721479438</v>
+        <v>0.003555165206014247</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.005236846306003125</v>
+        <v>0.005689148883861995</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.006161512687003426</v>
+        <v>0.006460351133098349</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.001802830007081887</v>
+        <v>0.001780094189850452</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.003321720931076156</v>
+        <v>0.003563133816853667</v>
       </c>
       <c r="I8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01160795278751234</v>
+        <v>0.01168064058960973</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.003719704057427233</v>
+        <v>0.00344182246798269</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.00541806157840307</v>
+        <v>0.005565145687928969</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.0105749198607501</v>
+        <v>0.01005727032953292</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01512954888964222</v>
+        <v>0.01414324488798993</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02046261114251186</v>
+        <v>0.01995169770814266</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.005562331245597282</v>
+        <v>0.006895803993148713</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02233564298381858</v>
+        <v>0.02255732411726923</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01036836145703282</v>
+        <v>0.01028328673824623</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.01670441652421282</v>
+        <v>0.01639349290650362</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.009725604720686256</v>
+        <v>0.009202828695046125</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02588693386695272</v>
+        <v>0.02624711018869622</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01052684852741867</v>
+        <v>0.01034730845131177</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.01554741733249257</v>
+        <v>0.01530308811965811</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.00556843223744343</v>
+        <v>0.00605793944154652</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02079568777899761</v>
+        <v>0.02027701848064337</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.007986589210128481</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.05026098027889426</v>
+        <v>0.05026098027889427</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.01057025469219148</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.00678816178200137</v>
+        <v>0.006926069063313572</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.008441427150989032</v>
+        <v>0.008548295904049076</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.00353130234155588</v>
+        <v>0.002553128670353117</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02554368431040266</v>
+        <v>0.02549356659728091</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.004011055247386583</v>
+        <v>0.00406335996422234</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.003392568808653255</v>
+        <v>0.002641335962404847</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.002569499351177708</v>
+        <v>0.003378099229926611</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03813249451455447</v>
+        <v>0.03821669591874038</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.006910739612802893</v>
+        <v>0.006860808149600432</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.006788959132181993</v>
+        <v>0.006721223334519653</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.004230683537556217</v>
+        <v>0.00416476271871155</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.03472513570691618</v>
+        <v>0.03548879644765255</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02026135852527383</v>
+        <v>0.02065453931788019</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02699948578281249</v>
+        <v>0.02674255969378512</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01523356586661635</v>
+        <v>0.01486966982450235</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04912279662992556</v>
+        <v>0.04914888891004079</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.01671656428734563</v>
+        <v>0.01666114979167337</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.01654146078632223</v>
+        <v>0.0158794457452328</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.01625933392837254</v>
+        <v>0.01708229701574169</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.06431266164209244</v>
+        <v>0.06403422284098202</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01621845780479168</v>
+        <v>0.01585894532267307</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.01770069640633705</v>
+        <v>0.01687576277591714</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.0130365707137825</v>
+        <v>0.01308393508277387</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.05278896869294736</v>
+        <v>0.05310929293492296</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.01648652450849788</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.03910003779827138</v>
+        <v>0.03910003779827137</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.01647363916986143</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01064451490447711</v>
+        <v>0.01008881362159748</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01547370953538621</v>
+        <v>0.01612024611897595</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0038827666380494</v>
+        <v>0.003831586539776197</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02846142020261956</v>
+        <v>0.02899424377599165</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.002639987122182204</v>
+        <v>0.002663480616584654</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.004510544541981625</v>
+        <v>0.00436863546470745</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.007918486455694861</v>
+        <v>0.007994371563499442</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02764408325525619</v>
+        <v>0.02856389566034909</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.009116091234796469</v>
+        <v>0.00869343595853897</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01245287785767381</v>
+        <v>0.01198206907397252</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.007865218326812719</v>
+        <v>0.007833231706798933</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.03194316611976827</v>
+        <v>0.03139793078248616</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04338080640234773</v>
+        <v>0.03989481202790931</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04837298444802546</v>
+        <v>0.04842122398658075</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02504172718936411</v>
+        <v>0.0247403950914709</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.05485923118670536</v>
+        <v>0.05410211930308095</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02413255767212987</v>
+        <v>0.02641650444199412</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03208416340042006</v>
+        <v>0.03082577342087847</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03294662456364084</v>
+        <v>0.03178406755981739</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04985064920398447</v>
+        <v>0.051818012762996</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02869772223836383</v>
+        <v>0.02898457733200625</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.03248429644806258</v>
+        <v>0.03211733948822691</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02313321608370595</v>
+        <v>0.02445032566497962</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.04912606601262725</v>
+        <v>0.04892574732329048</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.004658541728097852</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.02723334229169096</v>
+        <v>0.02723334229169097</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.005395373199687703</v>
@@ -1229,7 +1229,7 @@
         <v>0.005414406420648954</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.031073899830337</v>
+        <v>0.03107389983033701</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.008057110588229065</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.007352537263345953</v>
+        <v>0.007418005264286836</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.009463630751314725</v>
+        <v>0.009326707845443098</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.002539091257991026</v>
+        <v>0.002656407293872948</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0214134189846693</v>
+        <v>0.02148112391308014</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.003225392380468395</v>
+        <v>0.003321988432198888</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.005161873622343941</v>
+        <v>0.00546635657642758</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.003305800281704369</v>
+        <v>0.003182340745872404</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02621977443357474</v>
+        <v>0.02550854201586268</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.006093934663614717</v>
+        <v>0.005978054067401095</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.008249041258519533</v>
+        <v>0.007977534280432245</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.003640867113011395</v>
+        <v>0.003461845088584068</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02554658133702586</v>
+        <v>0.02548457091358908</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0148642887099438</v>
+        <v>0.01488246863694934</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01811974672792295</v>
+        <v>0.01812164192514459</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.007732813350989249</v>
+        <v>0.00774804814741926</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03318301243321934</v>
+        <v>0.03344258874655889</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.008449518422606802</v>
+        <v>0.008497593225590343</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.01212859103236718</v>
+        <v>0.01215153438752599</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.008276702292222656</v>
+        <v>0.008247395182800441</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03672742428919484</v>
+        <v>0.03631837040098473</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01050995435695688</v>
+        <v>0.01046134164118625</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.01331003833180736</v>
+        <v>0.01351689510418059</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.007437891025482552</v>
+        <v>0.007056157055687342</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.03314014921797695</v>
+        <v>0.0331046145614524</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>877</v>
+        <v>889</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2314</v>
+        <v>2101</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2286</v>
+        <v>2442</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3905</v>
+        <v>3899</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>942</v>
+        <v>950</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3472</v>
+        <v>3693</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>963</v>
+        <v>986</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>8045</v>
+        <v>8186</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>2052</v>
+        <v>2001</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>7842</v>
+        <v>7583</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>7821</v>
+        <v>7669</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>15990</v>
+        <v>14493</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>9898</v>
+        <v>9720</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>16656</v>
+        <v>16463</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>4980</v>
+        <v>6674</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>17459</v>
+        <v>17340</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>8273</v>
+        <v>9020</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>12501</v>
+        <v>12742</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>9501</v>
+        <v>9802</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>24862</v>
+        <v>26964</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>14784</v>
+        <v>13760</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>23686</v>
+        <v>24293</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4526</v>
+        <v>3832</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5117</v>
+        <v>5559</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>5916</v>
+        <v>6203</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1907</v>
+        <v>1883</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>3635</v>
+        <v>3899</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>12953</v>
+        <v>13034</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>7943</v>
+        <v>7350</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>11223</v>
+        <v>11527</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>21953</v>
+        <v>20879</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>16308</v>
+        <v>15245</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>19993</v>
+        <v>19494</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>5055</v>
+        <v>6267</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>21445</v>
+        <v>21658</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>10965</v>
+        <v>10875</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>18279</v>
+        <v>17939</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>9789</v>
+        <v>9262</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>28886</v>
+        <v>29288</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>22479</v>
+        <v>22096</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>32204</v>
+        <v>31698</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>10665</v>
+        <v>11603</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>43172</v>
+        <v>42095</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>7614</v>
+        <v>7768</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>7472</v>
+        <v>7566</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2909</v>
+        <v>2103</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>26731</v>
+        <v>26678</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3987</v>
+        <v>4039</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2971</v>
+        <v>2313</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1981</v>
+        <v>2605</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>39949</v>
+        <v>40037</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>14620</v>
+        <v>14514</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>11955</v>
+        <v>11835</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>6747</v>
+        <v>6642</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>72719</v>
+        <v>74318</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>22725</v>
+        <v>23166</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>23898</v>
+        <v>23670</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>12549</v>
+        <v>12249</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>51406</v>
+        <v>51433</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>16615</v>
+        <v>16560</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>14487</v>
+        <v>13907</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>12537</v>
+        <v>13171</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>67377</v>
+        <v>67085</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>34311</v>
+        <v>33550</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>31169</v>
+        <v>29717</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>20791</v>
+        <v>20866</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>110546</v>
+        <v>111217</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4760</v>
+        <v>4512</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>7784</v>
+        <v>8109</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1967</v>
+        <v>1941</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>27776</v>
+        <v>28296</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>901</v>
+        <v>909</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2042</v>
+        <v>1978</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3878</v>
+        <v>3915</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>25166</v>
+        <v>26003</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>7187</v>
+        <v>6854</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>11902</v>
+        <v>11452</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>7837</v>
+        <v>7805</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>60254</v>
+        <v>59225</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>19400</v>
+        <v>17841</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>24333</v>
+        <v>24357</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>12689</v>
+        <v>12536</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>53539</v>
+        <v>52800</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>8233</v>
+        <v>9012</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>14526</v>
+        <v>13956</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>16134</v>
+        <v>15565</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>45381</v>
+        <v>47172</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>22624</v>
+        <v>22850</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>31047</v>
+        <v>30696</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>23050</v>
+        <v>24362</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>92665</v>
+        <v>92287</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>23755</v>
+        <v>23966</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>32263</v>
+        <v>31796</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>8550</v>
+        <v>8945</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>74546</v>
+        <v>74782</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>10692</v>
+        <v>11012</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>18287</v>
+        <v>19366</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>11659</v>
+        <v>11223</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>96945</v>
+        <v>94316</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>39890</v>
+        <v>39131</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>57346</v>
+        <v>55459</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>25100</v>
+        <v>23866</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>183391</v>
+        <v>182946</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>48024</v>
+        <v>48083</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>61773</v>
+        <v>61779</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>26039</v>
+        <v>26090</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>115519</v>
+        <v>116423</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>28010</v>
+        <v>28169</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>42968</v>
+        <v>43050</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>29190</v>
+        <v>29087</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>135797</v>
+        <v>134284</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>68796</v>
+        <v>68478</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>92530</v>
+        <v>93968</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>51277</v>
+        <v>48646</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>237903</v>
+        <v>237648</v>
       </c>
     </row>
     <row r="24">
